--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H2">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="N2">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="O2">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="P2">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="Q2">
-        <v>109.6354202338133</v>
+        <v>209.7154654637644</v>
       </c>
       <c r="R2">
-        <v>109.6354202338133</v>
+        <v>1887.43918917388</v>
       </c>
       <c r="S2">
-        <v>0.008485230693322292</v>
+        <v>0.01331736400484862</v>
       </c>
       <c r="T2">
-        <v>0.008485230693322292</v>
+        <v>0.01331736400484862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H3">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="N3">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="O3">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="P3">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="Q3">
-        <v>431.4480465846683</v>
+        <v>676.73437430456</v>
       </c>
       <c r="R3">
-        <v>431.4480465846683</v>
+        <v>6090.609368741039</v>
       </c>
       <c r="S3">
-        <v>0.03339191111455313</v>
+        <v>0.04297402662830551</v>
       </c>
       <c r="T3">
-        <v>0.03339191111455313</v>
+        <v>0.04297402662830551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H4">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66121731457884</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="N4">
-        <v>4.66121731457884</v>
+        <v>14.065637</v>
       </c>
       <c r="O4">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="P4">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="Q4">
-        <v>54.86956001447143</v>
+        <v>86.52360012047755</v>
       </c>
       <c r="R4">
-        <v>54.86956001447143</v>
+        <v>778.712401084298</v>
       </c>
       <c r="S4">
-        <v>0.004246628268227224</v>
+        <v>0.005494426819053347</v>
       </c>
       <c r="T4">
-        <v>0.004246628268227224</v>
+        <v>0.005494426819053347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H5">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I5">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J5">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>230.638889913489</v>
+        <v>236.9790546666667</v>
       </c>
       <c r="N5">
-        <v>230.638889913489</v>
+        <v>710.9371639999999</v>
       </c>
       <c r="O5">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="P5">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="Q5">
-        <v>2714.96769142219</v>
+        <v>4373.271035554407</v>
       </c>
       <c r="R5">
-        <v>2714.96769142219</v>
+        <v>39359.43931998965</v>
       </c>
       <c r="S5">
-        <v>0.2101248587135795</v>
+        <v>0.2777117183205658</v>
       </c>
       <c r="T5">
-        <v>0.2101248587135795</v>
+        <v>0.2777117183205658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J6">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="N6">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="O6">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="P6">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="Q6">
-        <v>147.6298846678893</v>
+        <v>180.5331539558222</v>
       </c>
       <c r="R6">
-        <v>147.6298846678893</v>
+        <v>1624.7983856024</v>
       </c>
       <c r="S6">
-        <v>0.01142581134786639</v>
+        <v>0.01146422711771094</v>
       </c>
       <c r="T6">
-        <v>0.01142581134786639</v>
+        <v>0.01146422711771094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J7">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="N7">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="O7">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="P7">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="Q7">
-        <v>580.9675853081308</v>
+        <v>582.5654808687998</v>
       </c>
       <c r="R7">
-        <v>580.9675853081308</v>
+        <v>5243.089327819199</v>
       </c>
       <c r="S7">
-        <v>0.04496397219227796</v>
+        <v>0.03699410793683208</v>
       </c>
       <c r="T7">
-        <v>0.04496397219227796</v>
+        <v>0.03699410793683208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J8">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66121731457884</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="N8">
-        <v>4.66121731457884</v>
+        <v>14.065637</v>
       </c>
       <c r="O8">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="P8">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="Q8">
-        <v>73.88476095990698</v>
+        <v>74.48367428133776</v>
       </c>
       <c r="R8">
-        <v>73.88476095990698</v>
+        <v>670.3530685320399</v>
       </c>
       <c r="S8">
-        <v>0.005718309284798349</v>
+        <v>0.004729866729807514</v>
       </c>
       <c r="T8">
-        <v>0.005718309284798349</v>
+        <v>0.004729866729807515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J9">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>230.638889913489</v>
+        <v>236.9790546666667</v>
       </c>
       <c r="N9">
-        <v>230.638889913489</v>
+        <v>710.9371639999999</v>
       </c>
       <c r="O9">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="P9">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="Q9">
-        <v>3655.847410507643</v>
+        <v>3764.72193601143</v>
       </c>
       <c r="R9">
-        <v>3655.847410507643</v>
+        <v>33882.49742410288</v>
       </c>
       <c r="S9">
-        <v>0.282944221781484</v>
+        <v>0.2390675970798414</v>
       </c>
       <c r="T9">
-        <v>0.282944221781484</v>
+        <v>0.2390675970798414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H10">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="N10">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="O10">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="P10">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="Q10">
-        <v>36.26498226910536</v>
+        <v>54.84331337257332</v>
       </c>
       <c r="R10">
-        <v>36.26498226910536</v>
+        <v>493.58982035316</v>
       </c>
       <c r="S10">
-        <v>0.002806727424279045</v>
+        <v>0.003482663359134747</v>
       </c>
       <c r="T10">
-        <v>0.002806727424279045</v>
+        <v>0.003482663359134747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H11">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I11">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J11">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="N11">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="O11">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="P11">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="Q11">
-        <v>142.7135110721044</v>
+        <v>176.97481336392</v>
       </c>
       <c r="R11">
-        <v>142.7135110721044</v>
+        <v>1592.77332027528</v>
       </c>
       <c r="S11">
-        <v>0.01104530873250881</v>
+        <v>0.01123826516106269</v>
       </c>
       <c r="T11">
-        <v>0.01104530873250881</v>
+        <v>0.01123826516106269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H12">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I12">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J12">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.66121731457884</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="N12">
-        <v>4.66121731457884</v>
+        <v>14.065637</v>
       </c>
       <c r="O12">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="P12">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="Q12">
-        <v>18.14964193866171</v>
+        <v>22.62704328952066</v>
       </c>
       <c r="R12">
-        <v>18.14964193866171</v>
+        <v>203.643389605686</v>
       </c>
       <c r="S12">
-        <v>0.001404691098208101</v>
+        <v>0.001436863853477127</v>
       </c>
       <c r="T12">
-        <v>0.001404691098208101</v>
+        <v>0.001436863853477127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H13">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I13">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J13">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>230.638889913489</v>
+        <v>236.9790546666667</v>
       </c>
       <c r="N13">
-        <v>230.638889913489</v>
+        <v>710.9371639999999</v>
       </c>
       <c r="O13">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="P13">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="Q13">
-        <v>898.0515145620207</v>
+        <v>1143.667079276755</v>
       </c>
       <c r="R13">
-        <v>898.0515145620207</v>
+        <v>10293.00371349079</v>
       </c>
       <c r="S13">
-        <v>0.06950467521623131</v>
+        <v>0.07262521512855338</v>
       </c>
       <c r="T13">
-        <v>0.06950467521623131</v>
+        <v>0.0726252151285534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H14">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I14">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J14">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="N14">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="O14">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="P14">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="Q14">
-        <v>134.3175446464595</v>
+        <v>172.6311531395378</v>
       </c>
       <c r="R14">
-        <v>134.3175446464595</v>
+        <v>1553.68037825584</v>
       </c>
       <c r="S14">
-        <v>0.0103955031143696</v>
+        <v>0.01096243379024052</v>
       </c>
       <c r="T14">
-        <v>0.0103955031143696</v>
+        <v>0.01096243379024052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H15">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I15">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J15">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="N15">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="O15">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="P15">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="Q15">
-        <v>528.5795606581796</v>
+        <v>557.06638109408</v>
       </c>
       <c r="R15">
-        <v>528.5795606581796</v>
+        <v>5013.59742984672</v>
       </c>
       <c r="S15">
-        <v>0.04090940229347811</v>
+        <v>0.03537486258101175</v>
       </c>
       <c r="T15">
-        <v>0.04090940229347811</v>
+        <v>0.03537486258101176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H16">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I16">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J16">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.66121731457884</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="N16">
-        <v>4.66121731457884</v>
+        <v>14.065637</v>
       </c>
       <c r="O16">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="P16">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="Q16">
-        <v>67.22229514200693</v>
+        <v>71.22349717771823</v>
       </c>
       <c r="R16">
-        <v>67.22229514200693</v>
+        <v>641.011474599464</v>
       </c>
       <c r="S16">
-        <v>0.005202667904205358</v>
+        <v>0.004522838768788224</v>
       </c>
       <c r="T16">
-        <v>0.005202667904205358</v>
+        <v>0.004522838768788225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H17">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I17">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J17">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>230.638889913489</v>
+        <v>236.9790546666667</v>
       </c>
       <c r="N17">
-        <v>230.638889913489</v>
+        <v>710.9371639999999</v>
       </c>
       <c r="O17">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="P17">
-        <v>0.8200038365319058</v>
+        <v>0.8180080532497269</v>
       </c>
       <c r="Q17">
-        <v>3326.185947284086</v>
+        <v>3599.938708335001</v>
       </c>
       <c r="R17">
-        <v>3326.185947284086</v>
+        <v>32399.44837501501</v>
       </c>
       <c r="S17">
-        <v>0.257430080820611</v>
+        <v>0.2286035227207663</v>
       </c>
       <c r="T17">
-        <v>0.257430080820611</v>
+        <v>0.2286035227207664</v>
       </c>
     </row>
   </sheetData>
